--- a/config_ios/game_enter_btn_config.xlsx
+++ b/config_ios/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="17" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="353">
   <si>
     <t>id|行号</t>
   </si>
@@ -1349,10 +1349,6 @@
   </si>
   <si>
     <t>排行榜总入口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>108#104#95#72#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2202,10 +2198,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2224,10 +2220,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -2617,7 +2613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2650,7 +2646,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2693,7 +2689,7 @@
         <v>236</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2701,10 +2697,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2712,10 +2708,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2723,10 +2719,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2740,7 +2736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2792,9 +2788,7 @@
       <c r="B4" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>299</v>
-      </c>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -3158,7 +3152,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -3175,7 +3169,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E123" sqref="E123"/>
+      <selection pane="bottomRight" activeCell="F109" sqref="A109:F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3200,7 +3194,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>51</v>
@@ -3256,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -4725,7 +4719,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -5035,7 +5029,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E106">
         <v>105</v>
@@ -5100,7 +5094,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5109,7 +5103,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5117,7 +5111,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5126,7 +5120,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5134,7 +5128,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5143,7 +5137,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5151,7 +5145,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5160,7 +5154,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5168,7 +5162,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5177,7 +5171,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5185,7 +5179,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5194,7 +5188,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5202,19 +5196,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5222,19 +5216,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>327</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5242,7 +5236,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5251,7 +5245,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5259,7 +5253,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5268,7 +5262,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5276,7 +5270,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5285,7 +5279,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5293,7 +5287,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5302,7 +5296,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5310,7 +5304,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5319,7 +5313,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -5555,7 +5549,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5698,7 +5692,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5717,7 +5711,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5737,10 +5731,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -5812,10 +5806,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -5831,10 +5825,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>

--- a/config_ios/game_enter_btn_config.xlsx
+++ b/config_ios/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="17" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="352">
   <si>
     <t>id|行号</t>
   </si>
@@ -1372,10 +1372,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>109#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>69#73#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1487,10 +1483,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3;116#2#8#61#117#115#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>right</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1559,11 +1551,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>103#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>72#121#</t>
+    <t>3;116#8#61#117#115#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>121#</t>
+  </si>
+  <si>
+    <t>109#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2198,10 +2193,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2220,10 +2215,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -2613,8 +2608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2646,7 +2641,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2688,9 +2683,7 @@
       <c r="B6" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>352</v>
-      </c>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -2700,7 +2693,7 @@
         <v>299</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2711,7 +2704,7 @@
         <v>300</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2722,7 +2715,7 @@
         <v>301</v>
       </c>
       <c r="C9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2736,7 +2729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3152,7 +3145,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -3194,7 +3187,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>51</v>
@@ -3250,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -4719,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -5029,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E106">
         <v>105</v>
@@ -5111,7 +5104,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5120,7 +5113,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5128,7 +5121,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5137,7 +5130,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5145,7 +5138,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5154,7 +5147,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5162,7 +5155,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5171,7 +5164,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5179,7 +5172,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5188,7 +5181,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5196,19 +5189,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5216,19 +5209,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>326</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5236,7 +5229,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5245,7 +5238,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5253,7 +5246,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5262,7 +5255,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5270,7 +5263,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5279,7 +5272,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5287,7 +5280,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5296,7 +5289,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5304,7 +5297,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5313,7 +5306,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -5549,7 +5542,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5654,7 +5647,7 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5692,7 +5685,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5711,7 +5704,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5731,10 +5724,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -5806,10 +5799,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -5825,10 +5818,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>

--- a/config_ios/game_enter_btn_config.xlsx
+++ b/config_ios/game_enter_btn_config.xlsx
@@ -717,10 +717,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>彩金鱼抽奖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"hall_activity",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1471,10 +1467,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>111#112#53#79#36;113;89;93;11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>元旦福利</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1559,6 +1551,14 @@
   </si>
   <si>
     <t>109#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩金鱼抽奖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>111#112#79#36;113;89;93;11#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2185,7 +2185,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2193,10 +2193,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2204,10 +2204,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2215,10 +2215,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2553,7 +2553,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2609,7 +2609,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2627,10 +2627,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2641,7 +2641,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2649,10 +2649,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2660,7 +2660,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="6"/>
       <c r="F4" s="6"/>
@@ -2670,10 +2670,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2681,7 +2681,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" s="6"/>
     </row>
@@ -2690,10 +2690,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2701,10 +2701,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2712,10 +2712,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2747,10 +2747,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2758,10 +2758,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2769,7 +2769,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2779,7 +2779,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="6"/>
     </row>
@@ -2788,10 +2788,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2799,10 +2799,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2810,10 +2810,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2821,10 +2821,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2891,7 +2891,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2952,10 +2952,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2990,10 +2990,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3028,10 +3028,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3069,7 +3069,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3104,10 +3104,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3134,7 +3134,7 @@
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3145,7 +3145,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -3159,10 +3159,10 @@
   <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F109" sqref="A109:F109"/>
+      <selection pane="bottomRight" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3181,13 +3181,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>51</v>
@@ -3201,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -3237,13 +3237,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -3545,7 +3545,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3725,7 +3725,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -3735,7 +3735,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3966,7 +3966,7 @@
         <v>43</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>152</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3974,7 +3974,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4281,7 +4281,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4290,7 +4290,7 @@
         <v>62</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4298,7 +4298,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4307,7 +4307,7 @@
         <v>63</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4315,7 +4315,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4324,7 +4324,7 @@
         <v>64</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4332,7 +4332,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4341,7 +4341,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4349,7 +4349,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4358,7 +4358,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4366,7 +4366,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4375,7 +4375,7 @@
         <v>67</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4383,7 +4383,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4392,7 +4392,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4400,7 +4400,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4409,7 +4409,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4417,7 +4417,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4426,7 +4426,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4434,7 +4434,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4443,7 +4443,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4451,7 +4451,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4460,7 +4460,7 @@
         <v>72</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -4468,7 +4468,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4477,7 +4477,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4485,7 +4485,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4494,7 +4494,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4502,7 +4502,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4511,7 +4511,7 @@
         <v>75</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4519,7 +4519,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4528,7 +4528,7 @@
         <v>76</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4536,7 +4536,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4545,7 +4545,7 @@
         <v>77</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4553,7 +4553,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4562,7 +4562,7 @@
         <v>78</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4570,7 +4570,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4579,7 +4579,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4587,7 +4587,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4596,7 +4596,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4604,7 +4604,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4613,7 +4613,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4621,7 +4621,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4630,7 +4630,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4638,7 +4638,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4647,7 +4647,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4655,7 +4655,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4664,7 +4664,7 @@
         <v>84</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4672,7 +4672,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4681,7 +4681,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4689,7 +4689,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4698,7 +4698,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4706,19 +4706,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4726,7 +4726,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4735,7 +4735,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4743,7 +4743,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4752,7 +4752,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4760,7 +4760,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4769,7 +4769,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4777,7 +4777,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4786,7 +4786,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4794,7 +4794,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4803,7 +4803,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4811,7 +4811,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4820,7 +4820,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4828,7 +4828,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4837,7 +4837,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4845,7 +4845,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4854,7 +4854,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4862,7 +4862,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4871,7 +4871,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4879,7 +4879,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4889,7 +4889,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4897,7 +4897,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4906,7 +4906,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4914,7 +4914,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4923,7 +4923,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4931,7 +4931,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4940,7 +4940,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4948,7 +4948,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4957,7 +4957,7 @@
         <v>101</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -4965,7 +4965,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C103" s="20">
         <v>1</v>
@@ -4974,7 +4974,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4982,7 +4982,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4991,7 +4991,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4999,7 +4999,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C105" s="15">
         <v>1</v>
@@ -5008,7 +5008,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -5016,19 +5016,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -5036,7 +5036,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5045,7 +5045,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -5053,7 +5053,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5062,7 +5062,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5070,7 +5070,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5079,7 +5079,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5087,7 +5087,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5096,7 +5096,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5104,7 +5104,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5113,7 +5113,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5121,7 +5121,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5130,7 +5130,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5138,7 +5138,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5147,7 +5147,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5155,7 +5155,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5164,7 +5164,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5172,7 +5172,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5181,7 +5181,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5189,19 +5189,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5209,19 +5209,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5229,7 +5229,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5238,7 +5238,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5246,7 +5246,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5255,7 +5255,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5263,7 +5263,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5272,7 +5272,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5280,7 +5280,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5289,7 +5289,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5297,7 +5297,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5306,7 +5306,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -5357,7 +5357,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5432,7 +5432,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5451,7 +5451,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -5493,10 +5493,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -5542,7 +5542,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5550,10 +5550,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D3"/>
     </row>
@@ -5618,10 +5618,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -5629,10 +5629,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -5685,7 +5685,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5704,7 +5704,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5724,10 +5724,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -5780,10 +5780,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="6">
         <f>'all_enter|所有按钮入口'!E7</f>
@@ -5799,10 +5799,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -5818,10 +5818,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>

--- a/config_ios/game_enter_btn_config.xlsx
+++ b/config_ios/game_enter_btn_config.xlsx
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="353">
   <si>
     <t>id|行号</t>
   </si>
@@ -1547,18 +1547,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>109#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩金鱼抽奖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>111#112#79#36;113;89;93;11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>121#</t>
-  </si>
-  <si>
-    <t>109#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩金鱼抽奖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>111#112#79#36;113;89;93;11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>103#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2609,7 +2614,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2641,7 +2646,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2683,7 +2688,9 @@
       <c r="B6" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -2693,7 +2700,7 @@
         <v>298</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2704,7 +2711,7 @@
         <v>299</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3159,10 +3166,10 @@
   <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F54" sqref="F54"/>
+      <selection pane="bottomRight" activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3966,7 +3973,7 @@
         <v>43</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
